--- a/biology/Médecine/Diagnostic_C.I.V/Diagnostic_C.I.V..xlsx
+++ b/biology/Médecine/Diagnostic_C.I.V/Diagnostic_C.I.V..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Diagnostic C.I.V. est un film français de court métrage réalisé par Henri Fabiani, sorti en 1960. 
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'établissement du diagnostic C.I.V.  (communication interventriculaire) chez une adolescente et la description d'une opération à cœur ouvert.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Diagnostic C.I.V.
 Réalisation : Henri Fabiani
@@ -582,7 +598,9 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1960 : Médaille d'argent au Festival de Moscou</t>
         </is>
@@ -612,7 +630,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Saison Cinématographique 61, p. 370
 François Porcile, Défense du court métrage français, Éditions du Cerf, 1965, p. 232
